--- a/狼人杀文档[3-17].xlsx
+++ b/狼人杀文档[3-17].xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>狼人杀战斗界面</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>总体保持原来带确定的操作。</t>
+  </si>
+  <si>
+    <t>优化修改</t>
+  </si>
+  <si>
+    <t>1.战斗准备阶段，去除排麦，大家按住发言。最多同时不能有超过3个人发言。</t>
+  </si>
+  <si>
+    <t>2.房主可以踢任意玩家。若房主退出，下一位继任房主。</t>
+  </si>
+  <si>
+    <t>3.月卡玩家可以踢没有准备的玩家。</t>
   </si>
 </sst>
 </file>
@@ -66,7 +78,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,6 +107,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -102,9 +121,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,15 +130,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,9 +168,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,8 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,21 +205,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -231,187 +243,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +457,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +508,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -499,17 +515,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,49 +539,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,7 +590,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -587,88 +599,88 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,13 +1237,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A116"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="2" t="s">
@@ -1251,6 +1263,26 @@
     <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
